--- a/data/pca/factorExposure/factorExposure_2013-06-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-12.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.003006259857782096</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001654575741657903</v>
+      </c>
+      <c r="C2">
+        <v>0.03132704824762727</v>
+      </c>
+      <c r="D2">
+        <v>0.004173259012259604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001856963572474919</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005832341891350089</v>
+      </c>
+      <c r="C4">
+        <v>0.08454500363807083</v>
+      </c>
+      <c r="D4">
+        <v>0.08011315821125312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0004796544734300098</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01283344602283671</v>
+      </c>
+      <c r="C6">
+        <v>0.107154908978014</v>
+      </c>
+      <c r="D6">
+        <v>0.03461591440753749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001634423481308145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004904708460688116</v>
+      </c>
+      <c r="C7">
+        <v>0.05167173615811557</v>
+      </c>
+      <c r="D7">
+        <v>0.03833844651661478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.003267306495461367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005661291885027316</v>
+      </c>
+      <c r="C8">
+        <v>0.03638563269358699</v>
+      </c>
+      <c r="D8">
+        <v>0.04265673000584148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005638588589285644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003897384358101745</v>
+      </c>
+      <c r="C9">
+        <v>0.06873058743781287</v>
+      </c>
+      <c r="D9">
+        <v>0.07010032126370208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.005472205227506518</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005791077133542482</v>
+      </c>
+      <c r="C10">
+        <v>0.07797931573989335</v>
+      </c>
+      <c r="D10">
+        <v>-0.2114059285090215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.005587260526761346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.004880959093075259</v>
+      </c>
+      <c r="C11">
+        <v>0.07854828779596423</v>
+      </c>
+      <c r="D11">
+        <v>0.06543965795238547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.00118626911005699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003720185066031308</v>
+      </c>
+      <c r="C12">
+        <v>0.06304735524107308</v>
+      </c>
+      <c r="D12">
+        <v>0.04703631480284026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003750939597174689</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008548275308842291</v>
+      </c>
+      <c r="C13">
+        <v>0.06958738132423503</v>
+      </c>
+      <c r="D13">
+        <v>0.07052389856526049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.004132506445858669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.00157776377735585</v>
+      </c>
+      <c r="C14">
+        <v>0.04671793050083602</v>
+      </c>
+      <c r="D14">
+        <v>0.01395062992338027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.003218532734079538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005569027164576559</v>
+      </c>
+      <c r="C15">
+        <v>0.03756311446466794</v>
+      </c>
+      <c r="D15">
+        <v>0.04127049495137258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.003144958520436339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004665699207466451</v>
+      </c>
+      <c r="C16">
+        <v>0.06459462427462756</v>
+      </c>
+      <c r="D16">
+        <v>0.05031870580592202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.001122870141226181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008854863063826952</v>
+      </c>
+      <c r="C20">
+        <v>0.06514621146533457</v>
+      </c>
+      <c r="D20">
+        <v>0.05774883393098619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.004564918706769615</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009829870579101851</v>
+      </c>
+      <c r="C21">
+        <v>0.02396279909794793</v>
+      </c>
+      <c r="D21">
+        <v>0.03650057236822422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01576828178287544</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007229334042422341</v>
+      </c>
+      <c r="C22">
+        <v>0.08686625532173897</v>
+      </c>
+      <c r="D22">
+        <v>0.1079630124931612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01596320808784307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.007001113144177722</v>
+      </c>
+      <c r="C23">
+        <v>0.08936126963199149</v>
+      </c>
+      <c r="D23">
+        <v>0.1046900813081948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.004067691390714019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004362340316511289</v>
+      </c>
+      <c r="C24">
+        <v>0.07227194499045296</v>
+      </c>
+      <c r="D24">
+        <v>0.06022191158909068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005636955738958115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002537008939560473</v>
+      </c>
+      <c r="C25">
+        <v>0.07661037700896953</v>
+      </c>
+      <c r="D25">
+        <v>0.06486778326910989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006195868120583419</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003426524134686215</v>
+      </c>
+      <c r="C26">
+        <v>0.0406703691515431</v>
+      </c>
+      <c r="D26">
+        <v>0.02795979185469263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004709477877559717</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0004113852779051615</v>
+      </c>
+      <c r="C28">
+        <v>0.1268442395754067</v>
+      </c>
+      <c r="D28">
+        <v>-0.3076643903188233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002001037133025772</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003160865847413485</v>
+      </c>
+      <c r="C29">
+        <v>0.0478440959501401</v>
+      </c>
+      <c r="D29">
+        <v>0.01841391737863074</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005981925856148554</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008703944490912899</v>
+      </c>
+      <c r="C30">
+        <v>0.136854883149589</v>
+      </c>
+      <c r="D30">
+        <v>0.1087197783453591</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001248071487131354</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006040078628231371</v>
+      </c>
+      <c r="C31">
+        <v>0.04551399284278387</v>
+      </c>
+      <c r="D31">
+        <v>0.03515886359906496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001517984694553128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003961375483047046</v>
+      </c>
+      <c r="C32">
+        <v>0.04114194385776049</v>
+      </c>
+      <c r="D32">
+        <v>0.01391113627531054</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.00301563194811848</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007557178465522669</v>
+      </c>
+      <c r="C33">
+        <v>0.08192107852582677</v>
+      </c>
+      <c r="D33">
+        <v>0.07620276835081601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005458408757340533</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003475164994116342</v>
+      </c>
+      <c r="C34">
+        <v>0.05664656495966654</v>
+      </c>
+      <c r="D34">
+        <v>0.04524110970537336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.004087514798535537</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004790697065361246</v>
+      </c>
+      <c r="C35">
+        <v>0.03905567160295894</v>
+      </c>
+      <c r="D35">
+        <v>0.01235404963773754</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00459574468794535</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001516474364880006</v>
+      </c>
+      <c r="C36">
+        <v>0.02392617894854149</v>
+      </c>
+      <c r="D36">
+        <v>0.02472962111964163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002021867409017711</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.00957650702990231</v>
+      </c>
+      <c r="C38">
+        <v>0.03417038268755498</v>
+      </c>
+      <c r="D38">
+        <v>0.03120055137196647</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01397555855629917</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001244804058882902</v>
+      </c>
+      <c r="C39">
+        <v>0.1148447988831943</v>
+      </c>
+      <c r="D39">
+        <v>0.0819633641690474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.00855711053614553</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.00209600157137549</v>
+      </c>
+      <c r="C40">
+        <v>0.08519443858251373</v>
+      </c>
+      <c r="D40">
+        <v>0.0276342744772301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0001898605188837423</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007268464052792706</v>
+      </c>
+      <c r="C41">
+        <v>0.03942214835528242</v>
+      </c>
+      <c r="D41">
+        <v>0.03837408071067894</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002442511711481721</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.002984083951370895</v>
+      </c>
+      <c r="C43">
+        <v>0.05079145971801281</v>
+      </c>
+      <c r="D43">
+        <v>0.03102368099374223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005311142177159664</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003317077487131276</v>
+      </c>
+      <c r="C44">
+        <v>0.107219648682693</v>
+      </c>
+      <c r="D44">
+        <v>0.08408970541969703</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.003221716281161447</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002330861780241119</v>
+      </c>
+      <c r="C46">
+        <v>0.03471238100081947</v>
+      </c>
+      <c r="D46">
+        <v>0.03400951977669411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001874752950220443</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002896624092519652</v>
+      </c>
+      <c r="C47">
+        <v>0.03869239115080326</v>
+      </c>
+      <c r="D47">
+        <v>0.03052210813575827</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004297254853910925</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006392330962560478</v>
+      </c>
+      <c r="C48">
+        <v>0.02950865854648689</v>
+      </c>
+      <c r="D48">
+        <v>0.03178270702877834</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01558355190084411</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01361590772264647</v>
+      </c>
+      <c r="C49">
+        <v>0.171548618017945</v>
+      </c>
+      <c r="D49">
+        <v>0.03382372763220062</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0005523788361273336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003520350254514079</v>
+      </c>
+      <c r="C50">
+        <v>0.04117643463842281</v>
+      </c>
+      <c r="D50">
+        <v>0.04029853316476772</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001898142800923725</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004104731289477834</v>
+      </c>
+      <c r="C51">
+        <v>0.02020687700213138</v>
+      </c>
+      <c r="D51">
+        <v>0.03289068854145679</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0007109499750723058</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02007804670768973</v>
+      </c>
+      <c r="C53">
+        <v>0.1656534705709911</v>
+      </c>
+      <c r="D53">
+        <v>0.05267017061073337</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0008443069774039266</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008247948644621505</v>
+      </c>
+      <c r="C54">
+        <v>0.05585424862750212</v>
+      </c>
+      <c r="D54">
+        <v>0.04166888666708683</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004522408419016961</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009240496866518679</v>
+      </c>
+      <c r="C55">
+        <v>0.1055095804051455</v>
+      </c>
+      <c r="D55">
+        <v>0.05376060125592496</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002828531204074609</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01931943406442612</v>
+      </c>
+      <c r="C56">
+        <v>0.1716484874863612</v>
+      </c>
+      <c r="D56">
+        <v>0.05169998793230836</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007304939425834877</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01922669729810536</v>
+      </c>
+      <c r="C58">
+        <v>0.1005723235569129</v>
+      </c>
+      <c r="D58">
+        <v>0.07837298056225023</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006414715530766239</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009182395892200745</v>
+      </c>
+      <c r="C59">
+        <v>0.1692091062835149</v>
+      </c>
+      <c r="D59">
+        <v>-0.2744519601152016</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006569309305304659</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02301600931762899</v>
+      </c>
+      <c r="C60">
+        <v>0.2208539033919012</v>
+      </c>
+      <c r="D60">
+        <v>0.02853603100093432</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01601455706296614</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002293284661698667</v>
+      </c>
+      <c r="C61">
+        <v>0.09496293167055223</v>
+      </c>
+      <c r="D61">
+        <v>0.06176471779490019</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1856025840715941</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1433282259178459</v>
+      </c>
+      <c r="C62">
+        <v>0.07387111229192914</v>
+      </c>
+      <c r="D62">
+        <v>0.05262475122497873</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002317527865761057</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006365905256958286</v>
+      </c>
+      <c r="C63">
+        <v>0.05871364925635243</v>
+      </c>
+      <c r="D63">
+        <v>0.02739869777453916</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.007356818248036268</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01440591845590788</v>
+      </c>
+      <c r="C64">
+        <v>0.1003545100010195</v>
+      </c>
+      <c r="D64">
+        <v>0.06739810396096478</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0002346539301008161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01663467589926742</v>
+      </c>
+      <c r="C65">
+        <v>0.112415321724424</v>
+      </c>
+      <c r="D65">
+        <v>0.0303659425477897</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.01077049049190161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01167076869563267</v>
+      </c>
+      <c r="C66">
+        <v>0.1529059116018835</v>
+      </c>
+      <c r="D66">
+        <v>0.1196191957069574</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002200570364826045</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01559540128295997</v>
+      </c>
+      <c r="C67">
+        <v>0.06307446395347555</v>
+      </c>
+      <c r="D67">
+        <v>0.04190814254405796</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007709052357808549</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001542000903433892</v>
+      </c>
+      <c r="C68">
+        <v>0.113068702837657</v>
+      </c>
+      <c r="D68">
+        <v>-0.2624642525189753</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.004021659248332677</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005717805451435023</v>
+      </c>
+      <c r="C69">
+        <v>0.04543131898720012</v>
+      </c>
+      <c r="D69">
+        <v>0.04673839787912346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001668506032085146</v>
+      </c>
+      <c r="C70">
+        <v>0.002010093098920616</v>
+      </c>
+      <c r="D70">
+        <v>0.002331558241123876</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.003127351686505877</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.00631796307396428</v>
+      </c>
+      <c r="C71">
+        <v>0.1146185742605739</v>
+      </c>
+      <c r="D71">
+        <v>-0.2813722408935036</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.009397607934775962</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01495761275589124</v>
+      </c>
+      <c r="C72">
+        <v>0.1498742517113913</v>
+      </c>
+      <c r="D72">
+        <v>0.02712066481529465</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01368885159088505</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02974504346553702</v>
+      </c>
+      <c r="C73">
+        <v>0.2837002747892932</v>
+      </c>
+      <c r="D73">
+        <v>0.05227612513456197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005073276134595307</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001489378550284278</v>
+      </c>
+      <c r="C74">
+        <v>0.102816722812057</v>
+      </c>
+      <c r="D74">
+        <v>0.04359318836002833</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006916510458023344</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01046128524505832</v>
+      </c>
+      <c r="C75">
+        <v>0.1308774883873546</v>
+      </c>
+      <c r="D75">
+        <v>0.04132488341180269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01098967047829414</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02104441104748297</v>
+      </c>
+      <c r="C76">
+        <v>0.1450270534462582</v>
+      </c>
+      <c r="D76">
+        <v>0.07339168690036002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001216692484686111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02339037138253926</v>
+      </c>
+      <c r="C77">
+        <v>0.1280140224885688</v>
+      </c>
+      <c r="D77">
+        <v>0.06047669075908386</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0007063589808340492</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01381639915792844</v>
+      </c>
+      <c r="C78">
+        <v>0.09028244918433796</v>
+      </c>
+      <c r="D78">
+        <v>0.06749362234708678</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.0270703548688611</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03654362932883758</v>
+      </c>
+      <c r="C79">
+        <v>0.1560901303675701</v>
+      </c>
+      <c r="D79">
+        <v>0.03704973120146501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005211596352952697</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01054611127226649</v>
+      </c>
+      <c r="C80">
+        <v>0.04160247274020631</v>
+      </c>
+      <c r="D80">
+        <v>0.03551487905295773</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0001108291379277645</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01452125985706715</v>
+      </c>
+      <c r="C81">
+        <v>0.1201468258982248</v>
+      </c>
+      <c r="D81">
+        <v>0.05982282536834543</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.00631745734156129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01937191772019344</v>
+      </c>
+      <c r="C82">
+        <v>0.1414820825163407</v>
+      </c>
+      <c r="D82">
+        <v>0.04838088945907887</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.007355051747385529</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009809009092230852</v>
+      </c>
+      <c r="C83">
+        <v>0.05691764794918886</v>
+      </c>
+      <c r="D83">
+        <v>0.04796554493733125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01336547094833518</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01171634079660696</v>
+      </c>
+      <c r="C84">
+        <v>0.03023050968846265</v>
+      </c>
+      <c r="D84">
+        <v>0.001353697879390074</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01600304514927222</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.0277600816429186</v>
+      </c>
+      <c r="C85">
+        <v>0.1293474321118504</v>
+      </c>
+      <c r="D85">
+        <v>0.05353904179524016</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003762736668341521</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005140101818987784</v>
+      </c>
+      <c r="C86">
+        <v>0.04633709206103227</v>
+      </c>
+      <c r="D86">
+        <v>0.02273625706888009</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007801804515236785</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009563185070813015</v>
+      </c>
+      <c r="C87">
+        <v>0.1266285635733594</v>
+      </c>
+      <c r="D87">
+        <v>0.08137551509977749</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01455243564676446</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.00308109541341174</v>
+      </c>
+      <c r="C88">
+        <v>0.06951195862496985</v>
+      </c>
+      <c r="D88">
+        <v>0.02126989879585663</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01455556407478961</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001252493894115347</v>
+      </c>
+      <c r="C89">
+        <v>0.1646274854340193</v>
+      </c>
+      <c r="D89">
+        <v>-0.3436753347340894</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001654952124686126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007468446644553573</v>
+      </c>
+      <c r="C90">
+        <v>0.1464400968778821</v>
+      </c>
+      <c r="D90">
+        <v>-0.3166804048566736</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001302958308182759</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01005321312291758</v>
+      </c>
+      <c r="C91">
+        <v>0.1025469372154267</v>
+      </c>
+      <c r="D91">
+        <v>0.02428364771095465</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01447049347938686</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0005903295972545811</v>
+      </c>
+      <c r="C92">
+        <v>0.1546243983941093</v>
+      </c>
+      <c r="D92">
+        <v>-0.3257567196932052</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001112716020657197</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005224675112491332</v>
+      </c>
+      <c r="C93">
+        <v>0.127052530029275</v>
+      </c>
+      <c r="D93">
+        <v>-0.3099386465498411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.002507818774752275</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02172070932762892</v>
+      </c>
+      <c r="C94">
+        <v>0.155965134945738</v>
+      </c>
+      <c r="D94">
+        <v>0.03599988435206642</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.006448782765632033</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01564317999390317</v>
+      </c>
+      <c r="C95">
+        <v>0.1223450124153019</v>
+      </c>
+      <c r="D95">
+        <v>0.06991542032381749</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.004922826910433837</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03471004218643514</v>
+      </c>
+      <c r="C97">
+        <v>0.1746459988693344</v>
+      </c>
+      <c r="D97">
+        <v>0.04240670326580219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.006958908035238154</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.0354881951866049</v>
+      </c>
+      <c r="C98">
+        <v>0.257726222599452</v>
+      </c>
+      <c r="D98">
+        <v>0.04358784647867211</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9801796826591375</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9829322944704744</v>
+      </c>
+      <c r="C99">
+        <v>-0.1074687409934971</v>
+      </c>
+      <c r="D99">
+        <v>-0.03243452842118296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001954361821488803</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003207347404555761</v>
+      </c>
+      <c r="C101">
+        <v>0.04792249099964229</v>
+      </c>
+      <c r="D101">
+        <v>0.01846038764284233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
